--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Var</t>
   </si>
@@ -22,100 +22,112 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
   </si>
   <si>
     <t>Wheat (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
     <t>Wheat (US$ per ton)_lag_3</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
     <t>Wheat (US$ per ton)_lag_4</t>
   </si>
   <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_2</t>
   </si>
   <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
   </si>
   <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
   </si>
   <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
     <t>Crude oil (US$ per barrel)_lag_2</t>
   </si>
   <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
     <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
   </si>
   <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
+    <t>Net International Reserves (mill $)_lag_2</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
   </si>
 </sst>
 </file>
@@ -473,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,354 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01383386040328037</v>
+        <v>0.04506650995214924</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.008339360708428922</v>
+        <v>0.04075464982970491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00791704459306425</v>
+        <v>0.03955862013530556</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.007621032785533961</v>
+        <v>0.0365711790982746</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.007579094652799587</v>
+        <v>0.03509421678201255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.007428733118424666</v>
+        <v>0.03422282897028567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.007278313414659999</v>
+        <v>0.03377157641614647</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.007107906874198782</v>
+        <v>0.03357537080247275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.007018214278814101</v>
+        <v>0.0328888674031897</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.006318695655623889</v>
+        <v>-0.0318956692288758</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.006219908850226649</v>
+        <v>0.03111463330112201</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.006010396275989113</v>
+        <v>0.02966816929939278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.005517364405238001</v>
+        <v>0.0266200733789064</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.004959081323259457</v>
+        <v>0.02329095158067487</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.003825050847495646</v>
+        <v>-0.01446631605170146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.00245019248553538</v>
+        <v>0.009810364013774357</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.002343465096419211</v>
+        <v>0.009762997434785665</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002282566206471781</v>
+        <v>0.009062098525246176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.002258837929348513</v>
+        <v>0.008818057857649424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.002179246530981837</v>
+        <v>0.006652583753935943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.002090399571033151</v>
+        <v>-0.006469673664261638</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.001951744352589169</v>
+        <v>-0.00599318757646148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.001719674098895956</v>
+        <v>-0.005562276974427832</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.001367362324944209</v>
+        <v>-0.005499841263987192</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.001185061149342083</v>
+        <v>-0.0052116183256055</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.001144455072537434</v>
+        <v>-0.005161452833925596</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.0007829445154624299</v>
+        <v>-0.005108370084886805</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.0005207680869895498</v>
+        <v>-0.00507955464942052</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.0004770394982109248</v>
+        <v>-0.004742351159488655</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.0004612495152898107</v>
+        <v>-0.004268769181359581</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.0004501414452425656</v>
+        <v>-0.004059324855913539</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.0003454267981575858</v>
+        <v>-0.003047812541781978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>-0.002803852986217185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>-0.002044359443654568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>-0.001202152483120513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>-0.0002414109626081306</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -22,39 +22,78 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_1</t>
   </si>
   <si>
     <t>Soybean oil (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
     <t>Soybean oil (US$ per ton)_lag_3</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
   </si>
   <si>
     <t>Exchange rate_lag_1</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
     <t>Exchange rate_lag_2</t>
   </si>
   <si>
@@ -64,70 +103,31 @@
     <t>Exchange rate_lag_4</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
   </si>
   <si>
     <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
   </si>
 </sst>
 </file>
@@ -501,321 +501,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04506650995214924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04075464982970491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.03955862013530556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0365711790982746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03509421678201255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03422282897028567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03377157641614647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03357537080247275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.0328888674031897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.0318956692288758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03111463330112201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02966816929939278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0266200733789064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02329095158067487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.01446631605170146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.009810364013774357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.009762997434785665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.009062098525246176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.008818057857649424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.006652583753935943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.006469673664261638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.00599318757646148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.005562276974427832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.005499841263987192</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.0052116183256055</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.005161452833925596</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.005108370084886805</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.00507955464942052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.004742351159488655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -826,73 +826,73 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.004268769181359581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.004059324855913539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.003047812541781978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.002803852986217185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.002044359443654568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.001202152483120513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.0002414109626081306</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -22,112 +22,112 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
   </si>
   <si>
     <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
   </si>
   <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+    <t>Net International Reserves (mill $)_lag_2</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
   </si>
 </sst>
 </file>
@@ -501,321 +501,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04506650995214924</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.04075464982970491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.03955862013530556</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0365711790982746</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.03509421678201255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.03422282897028567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.03377157641614647</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.03357537080247275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0328888674031897</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.0318956692288758</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.03111463330112201</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.02966816929939278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.0266200733789064</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.02329095158067487</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.01446631605170146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.009810364013774357</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.009762997434785665</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.009062098525246176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.008818057857649424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.006652583753935943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006469673664261638</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.00599318757646148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0.005562276974427832</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0</v>
+        <v>-0.005499841263987192</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0</v>
+        <v>-0.0052116183256055</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0</v>
+        <v>-0.005161452833925596</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0</v>
+        <v>-0.005108370084886805</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-0.00507955464942052</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-0.004742351159488655</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -826,73 +826,73 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-0.004268769181359581</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>-0.004059324855913539</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-0.003047812541781978</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-0.002803852986217185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002044359443654568</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-0.001202152483120513</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0002414109626081306</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -22,112 +22,112 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_1</t>
   </si>
   <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_1</t>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
   <si>
     <t>Soybean oil (US$ per ton)_lag_3</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
+    <t>Net International Reserves (mill $)_lag_3</t>
   </si>
   <si>
     <t>Wheat (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
   </si>
   <si>
     <t>Soybean oil (US$ per ton)_lag_4</t>
   </si>
   <si>
-    <t>Exchange rate_lag_2</t>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
   </si>
   <si>
     <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
   </si>
 </sst>
 </file>
@@ -501,398 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04506650995214924</v>
+        <v>0.0783287082979547</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04075464982970491</v>
+        <v>0.06591971710214971</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.03955862013530556</v>
+        <v>0.06059941083050125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0365711790982746</v>
+        <v>0.05680807970123271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03509421678201255</v>
+        <v>-0.04336433486410578</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03422282897028567</v>
+        <v>0.04206269918187659</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03377157641614647</v>
+        <v>-0.04071555457028925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03357537080247275</v>
+        <v>0.03876765978925169</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.0328888674031897</v>
+        <v>-0.03865943698272328</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.0318956692288758</v>
+        <v>-0.03777277531643786</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03111463330112201</v>
+        <v>-0.02962145872453782</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02966816929939278</v>
+        <v>0.02509587191428598</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0266200733789064</v>
+        <v>0.02311147502683433</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02329095158067487</v>
+        <v>0.02253758248450747</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.01446631605170146</v>
+        <v>-0.02138673923375695</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.009810364013774357</v>
+        <v>-0.02010465304131178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.009762997434785665</v>
+        <v>-0.0190404937623345</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.009062098525246176</v>
+        <v>-0.01883663190521273</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.008818057857649424</v>
+        <v>-0.01790062897042242</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.006652583753935943</v>
+        <v>0.01610728347132202</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.006469673664261638</v>
+        <v>0.01476009149489192</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.00599318757646148</v>
+        <v>0.01472415879477785</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.005562276974427832</v>
+        <v>-0.01451520566166356</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.005499841263987192</v>
+        <v>0.01200958020272224</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.0052116183256055</v>
+        <v>-0.01029321331153171</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.005161452833925596</v>
+        <v>-0.0100851780179062</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.005108370084886805</v>
+        <v>0.008936246396271354</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.00507955464942052</v>
+        <v>-0.007996821106867578</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.004742351159488655</v>
+        <v>-0.007140645893063176</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.004268769181359581</v>
+        <v>0.006496999187533167</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.004059324855913539</v>
+        <v>-0.005298435759746312</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.003047812541781978</v>
+        <v>0.004868877606854875</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.002803852986217185</v>
+        <v>0.003728938002228118</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.002044359443654568</v>
+        <v>-0.003264573713390636</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.001202152483120513</v>
+        <v>0.001605355975135528</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.0002414109626081306</v>
+        <v>0.001091397029991103</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -22,112 +22,112 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
   </si>
 </sst>
 </file>
@@ -501,398 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0783287082979547</v>
+        <v>0.04506650995214924</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06591971710214971</v>
+        <v>0.04075464982970491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06059941083050125</v>
+        <v>0.03955862013530556</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05680807970123271</v>
+        <v>0.0365711790982746</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.04336433486410578</v>
+        <v>0.03509421678201255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04206269918187659</v>
+        <v>0.03422282897028567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.04071555457028925</v>
+        <v>0.03377157641614647</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03876765978925169</v>
+        <v>0.03357537080247275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.03865943698272328</v>
+        <v>0.0328888674031897</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.03777277531643786</v>
+        <v>-0.0318956692288758</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.02962145872453782</v>
+        <v>0.03111463330112201</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02509587191428598</v>
+        <v>0.02966816929939278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02311147502683433</v>
+        <v>0.0266200733789064</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02253758248450747</v>
+        <v>0.02329095158067487</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.02138673923375695</v>
+        <v>-0.01446631605170146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.02010465304131178</v>
+        <v>0.009810364013774357</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.0190404937623345</v>
+        <v>0.009762997434785665</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.01883663190521273</v>
+        <v>0.009062098525246176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.01790062897042242</v>
+        <v>0.008818057857649424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01610728347132202</v>
+        <v>0.006652583753935943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01476009149489192</v>
+        <v>-0.006469673664261638</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01472415879477785</v>
+        <v>-0.00599318757646148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.01451520566166356</v>
+        <v>-0.005562276974427832</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01200958020272224</v>
+        <v>-0.005499841263987192</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.01029321331153171</v>
+        <v>-0.0052116183256055</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.0100851780179062</v>
+        <v>-0.005161452833925596</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.008936246396271354</v>
+        <v>-0.005108370084886805</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.007996821106867578</v>
+        <v>-0.00507955464942052</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.007140645893063176</v>
+        <v>-0.004742351159488655</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.006496999187533167</v>
+        <v>-0.004268769181359581</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.005298435759746312</v>
+        <v>-0.004059324855913539</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.004868877606854875</v>
+        <v>-0.003047812541781978</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.003728938002228118</v>
+        <v>-0.002803852986217185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.003264573713390636</v>
+        <v>-0.002044359443654568</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001605355975135528</v>
+        <v>-0.001202152483120513</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001091397029991103</v>
+        <v>-0.0002414109626081306</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -22,112 +22,112 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_1</t>
   </si>
   <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Monetary Policy Rate_lag_1</t>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
     <t>Soybean oil (US$ per ton)_lag_3</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
+    <t>Net International Reserves (mill $)_lag_3</t>
   </si>
   <si>
     <t>Wheat (US$ per ton)_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
   </si>
   <si>
     <t>Soybean oil (US$ per ton)_lag_4</t>
   </si>
   <si>
-    <t>Exchange rate_lag_2</t>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
   </si>
   <si>
     <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
   </si>
 </sst>
 </file>
@@ -501,398 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04506650995214924</v>
+        <v>0.07917886691385542</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04075464982970491</v>
+        <v>0.06574708921781477</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.03955862013530556</v>
+        <v>0.06004398392314542</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0365711790982746</v>
+        <v>0.05740061633942464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03509421678201255</v>
+        <v>-0.04373781464065482</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03422282897028567</v>
+        <v>0.04164077099344726</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03377157641614647</v>
+        <v>-0.04058219297751914</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03357537080247275</v>
+        <v>-0.03888572829239217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.0328888674031897</v>
+        <v>0.03860623958342934</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.0318956692288758</v>
+        <v>-0.03792538052178216</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03111463330112201</v>
+        <v>-0.02983957760620679</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02966816929939278</v>
+        <v>0.0254870438822147</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0266200733789064</v>
+        <v>0.02244617922143145</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02329095158067487</v>
+        <v>0.02243759223293024</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.01446631605170146</v>
+        <v>-0.02161738389189421</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.009810364013774357</v>
+        <v>-0.02045747026953798</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.009762997434785665</v>
+        <v>-0.01958607591609925</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.009062098525246176</v>
+        <v>-0.01841794593549547</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.008818057857649424</v>
+        <v>-0.01776594484170694</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.006652583753935943</v>
+        <v>0.01551709229879728</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.006469673664261638</v>
+        <v>0.01530206563316133</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.00599318757646148</v>
+        <v>0.01498996471437503</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.005562276974427832</v>
+        <v>-0.01472405990822133</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-0.005499841263987192</v>
+        <v>0.01089011394235277</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.0052116183256055</v>
+        <v>-0.009522021101396216</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-0.005161452833925596</v>
+        <v>0.009221424369065775</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.005108370084886805</v>
+        <v>-0.009152353029393474</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.00507955464942052</v>
+        <v>-0.008227254910927984</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.004742351159488655</v>
+        <v>-0.007175977946608288</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0.004268769181359581</v>
+        <v>0.006455736164419081</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.004059324855913539</v>
+        <v>-0.005810166478712512</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-0.003047812541781978</v>
+        <v>0.00462550033253025</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.002803852986217185</v>
+        <v>-0.002626021027437625</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0.002044359443654568</v>
+        <v>0.001872455903382042</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-0.001202152483120513</v>
+        <v>0.001829589604849551</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0.0002414109626081306</v>
+        <v>0.000698779035143469</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_ridge.xlsx
+++ b/output/3_Regression/h19_test/h19coef_ridge.xlsx
@@ -22,112 +22,112 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
   </si>
 </sst>
 </file>
@@ -501,398 +501,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.07917886691385542</v>
+        <v>0.04506650995214924</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06574708921781477</v>
+        <v>0.04075464982970491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06004398392314542</v>
+        <v>0.03955862013530556</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05740061633942464</v>
+        <v>0.0365711790982746</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.04373781464065482</v>
+        <v>0.03509421678201255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04164077099344726</v>
+        <v>0.03422282897028567</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-0.04058219297751914</v>
+        <v>0.03377157641614647</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.03888572829239217</v>
+        <v>0.03357537080247275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.03860623958342934</v>
+        <v>0.0328888674031897</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.03792538052178216</v>
+        <v>-0.0318956692288758</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.02983957760620679</v>
+        <v>0.03111463330112201</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0254870438822147</v>
+        <v>0.02966816929939278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02244617922143145</v>
+        <v>0.0266200733789064</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02243759223293024</v>
+        <v>0.02329095158067487</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.02161738389189421</v>
+        <v>-0.01446631605170146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-0.02045747026953798</v>
+        <v>0.009810364013774357</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0.01958607591609925</v>
+        <v>0.009762997434785665</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0.01841794593549547</v>
+        <v>0.009062098525246176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.01776594484170694</v>
+        <v>0.008818057857649424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01551709229879728</v>
+        <v>0.006652583753935943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01530206563316133</v>
+        <v>-0.006469673664261638</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01498996471437503</v>
+        <v>-0.00599318757646148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.01472405990822133</v>
+        <v>-0.005562276974427832</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01089011394235277</v>
+        <v>-0.005499841263987192</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.009522021101396216</v>
+        <v>-0.0052116183256055</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.009221424369065775</v>
+        <v>-0.005161452833925596</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.009152353029393474</v>
+        <v>-0.005108370084886805</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.008227254910927984</v>
+        <v>-0.00507955464942052</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0.007175977946608288</v>
+        <v>-0.004742351159488655</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.006455736164419081</v>
+        <v>-0.004268769181359581</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-0.005810166478712512</v>
+        <v>-0.004059324855913539</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.00462550033253025</v>
+        <v>-0.003047812541781978</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-0.002626021027437625</v>
+        <v>-0.002803852986217185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001872455903382042</v>
+        <v>-0.002044359443654568</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001829589604849551</v>
+        <v>-0.001202152483120513</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.000698779035143469</v>
+        <v>-0.0002414109626081306</v>
       </c>
     </row>
   </sheetData>
